--- a/assets/Controle de CAPAGS.xlsx
+++ b/assets/Controle de CAPAGS.xlsx
@@ -5,18 +5,19 @@
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tesouro.sharepoint.com/sites/COREM/Documentos Compartilhados/CAPAG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fioro\PycharmProjects\ranking_cconf\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2135" documentId="11_AD4D361C20488DEA4E38A0BBE49A62805BDEDD8D" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CE0BB402-31FF-4408-B0BE-1FE8732E12C9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FBA56A-C519-4397-AF20-EF0757E5C444}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lista_Conf" sheetId="2" r:id="rId1"/>
     <sheet name="Dados" sheetId="1" r:id="rId2"/>
-    <sheet name="Planilha1" sheetId="5" r:id="rId3"/>
-    <sheet name="Log_alterações" sheetId="4" r:id="rId4"/>
+    <sheet name="Planilha2" sheetId="6" r:id="rId3"/>
+    <sheet name="Planilha1" sheetId="5" r:id="rId4"/>
+    <sheet name="Log_alterações" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="223">
   <si>
     <t>Situação_list</t>
   </si>
@@ -82,10 +83,6 @@
   </si>
   <si>
     <t>Arquivado (art. 8º port 373)</t>
-  </si>
-  <si>
-    <t>Ente 
-(Estado ou Município)</t>
   </si>
   <si>
     <t>UF</t>
@@ -539,9 +536,6 @@
     <t>17944.103042/2020-04</t>
   </si>
   <si>
-    <t>E:\Downloads\Cascavel - PR\1 - Demonstrativos\2017\SICONFI_RREO_8171_BIMESTRAL_6.xls</t>
-  </si>
-  <si>
     <t>17944.104722/2018-12</t>
   </si>
   <si>
@@ -712,13 +706,19 @@
   </si>
   <si>
     <t>Inseria a opção de "Arquivado art 8" na coluna "Situação"</t>
+  </si>
+  <si>
+    <t>Ente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sorocaba </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -762,8 +762,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -788,13 +796,49 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -803,7 +847,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -855,6 +899,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -943,7 +1001,7 @@
     <sortCondition ref="F1:F93"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{130B63C5-3BC5-4354-AD45-0B1388FFA2DF}" name="Ente _x000a_(Estado ou Município)"/>
+    <tableColumn id="1" xr3:uid="{130B63C5-3BC5-4354-AD45-0B1388FFA2DF}" name="Ente"/>
     <tableColumn id="2" xr3:uid="{90E85986-055F-44C0-AC38-6BBDF13B57D8}" name="UF" dataDxfId="13"/>
     <tableColumn id="3" xr3:uid="{BFE97B71-8C55-429F-9DF2-8B69FEF2476B}" name="Processo SEI" dataDxfId="12"/>
     <tableColumn id="4" xr3:uid="{4C23E347-3AF6-4B91-A885-FBCA5684EB58}" name="Último recebimento de informações _x000a_(data do ofício da COPEM ou data do último e-mail recebido)" dataDxfId="11"/>
@@ -1315,9 +1373,9 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:O95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I34" sqref="I34"/>
+    <sheetView topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" sqref="A1:B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1338,60 +1396,60 @@
   <sheetData>
     <row r="1" spans="1:15" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="D2" s="4">
         <v>43959</v>
@@ -1424,7 +1482,7 @@
         <v>Sim</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N2" s="4">
         <v>44028</v>
@@ -1435,10 +1493,10 @@
     </row>
     <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="4">
         <v>44042</v>
@@ -1468,10 +1526,10 @@
     </row>
     <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="4">
         <v>44042</v>
@@ -1501,10 +1559,10 @@
     </row>
     <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="4">
         <v>44042</v>
@@ -1534,19 +1592,19 @@
     </row>
     <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>38</v>
-      </c>
       <c r="C6" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6" s="15">
         <f ca="1">TODAY()</f>
@@ -1562,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K6" s="4" t="e">
         <f t="shared" si="0"/>
@@ -1573,10 +1631,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O6" s="14" t="s">
         <v>4</v>
@@ -1584,13 +1642,13 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="D7" s="4">
         <v>44027</v>
@@ -1609,7 +1667,7 @@
         <v>12</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J7" s="4">
         <v>43867</v>
@@ -1632,10 +1690,10 @@
     </row>
     <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" s="4">
         <v>44042</v>
@@ -1665,13 +1723,13 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="D9" s="4">
         <v>44105</v>
@@ -1711,13 +1769,13 @@
     </row>
     <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="D10" s="4">
         <v>43893</v>
@@ -1750,7 +1808,7 @@
         <v>Sim</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N10" s="4">
         <v>44102</v>
@@ -1761,13 +1819,13 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="D11" s="4">
         <v>44124</v>
@@ -1800,7 +1858,7 @@
         <v>Não</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N11" s="4">
         <v>44131</v>
@@ -1811,16 +1869,16 @@
     </row>
     <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="E12" s="4">
         <v>44014</v>
@@ -1850,7 +1908,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N12" s="4">
         <v>44102</v>
@@ -1861,13 +1919,13 @@
     </row>
     <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="D13" s="4">
         <v>43986</v>
@@ -1900,7 +1958,7 @@
         <v>Sim</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N13" s="4">
         <v>44102</v>
@@ -1911,13 +1969,13 @@
     </row>
     <row r="14" spans="1:15" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="D14" s="4">
         <v>43928</v>
@@ -1951,7 +2009,7 @@
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>7</v>
@@ -1959,10 +2017,10 @@
     </row>
     <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D15" s="4">
         <v>44042</v>
@@ -1992,13 +2050,13 @@
     </row>
     <row r="16" spans="1:15" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="D16" s="4">
         <v>44105</v>
@@ -2031,7 +2089,7 @@
         <v>Sim</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N16" s="4"/>
       <c r="O16" s="3" t="s">
@@ -2040,13 +2098,13 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="D17" s="4">
         <v>44027</v>
@@ -2088,13 +2146,13 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="D18" s="8">
         <v>44032</v>
@@ -2127,7 +2185,7 @@
         <v>Sim</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N18" s="4">
         <v>44039</v>
@@ -2138,13 +2196,13 @@
     </row>
     <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="D19" s="4">
         <v>43920</v>
@@ -2177,7 +2235,7 @@
         <v>Sim</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N19" s="4">
         <v>44102</v>
@@ -2188,13 +2246,13 @@
     </row>
     <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="D20" s="4">
         <v>44126</v>
@@ -2227,7 +2285,7 @@
         <v>Não</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N20" s="3"/>
       <c r="O20" s="3" t="s">
@@ -2236,10 +2294,10 @@
     </row>
     <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D21" s="4">
         <v>44042</v>
@@ -2269,13 +2327,13 @@
     </row>
     <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="D22" s="4">
         <v>44099</v>
@@ -2308,7 +2366,7 @@
         <v>Sim</v>
       </c>
       <c r="M22" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N22" s="3"/>
       <c r="O22" s="3" t="s">
@@ -2317,13 +2375,13 @@
     </row>
     <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="D23" s="4">
         <v>44084</v>
@@ -2356,7 +2414,7 @@
         <v>Sim</v>
       </c>
       <c r="M23" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N23" s="4">
         <v>44125</v>
@@ -2367,13 +2425,13 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="D24" s="4">
         <v>44050</v>
@@ -2415,13 +2473,13 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="D25" s="4">
         <v>43956</v>
@@ -2454,7 +2512,7 @@
         <v>Sim</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N25" s="4">
         <v>44028</v>
@@ -2465,13 +2523,13 @@
     </row>
     <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="D26" s="4">
         <v>44029</v>
@@ -2507,10 +2565,10 @@
     </row>
     <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D27" s="4">
         <v>44042</v>
@@ -2540,13 +2598,13 @@
     </row>
     <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="D28" s="4">
         <v>43959</v>
@@ -2579,7 +2637,7 @@
         <v>Sim</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N28" s="4">
         <v>44102</v>
@@ -2590,13 +2648,13 @@
     </row>
     <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="D29" s="4">
         <v>43963</v>
@@ -2629,7 +2687,7 @@
         <v>Sim</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N29" s="4">
         <v>44102</v>
@@ -2640,10 +2698,10 @@
     </row>
     <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D30" s="4">
         <v>44042</v>
@@ -2673,13 +2731,13 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="C31" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="D31" s="4">
         <v>44026</v>
@@ -2721,13 +2779,13 @@
     </row>
     <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="D32" s="4">
         <v>44068</v>
@@ -2756,7 +2814,7 @@
         <v>44098</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
@@ -2766,13 +2824,13 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="D33" s="4">
         <v>44029</v>
@@ -2805,7 +2863,7 @@
         <v>Sim</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N33" s="4">
         <v>44032</v>
@@ -2816,13 +2874,13 @@
     </row>
     <row r="34" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="C34" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="D34" s="4">
         <v>44139</v>
@@ -2855,7 +2913,7 @@
         <v>Não</v>
       </c>
       <c r="M34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N34" s="3"/>
       <c r="O34" s="3" t="s">
@@ -2864,13 +2922,13 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="D35" s="8">
         <v>44011</v>
@@ -2903,7 +2961,7 @@
         <v>Sim</v>
       </c>
       <c r="M35" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N35" s="4">
         <v>44028</v>
@@ -2914,13 +2972,13 @@
     </row>
     <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="D36" s="4">
         <v>43979</v>
@@ -2953,7 +3011,7 @@
         <v>Sim</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N36" s="4">
         <v>44102</v>
@@ -2964,13 +3022,13 @@
     </row>
     <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>113</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="D37" s="4">
         <v>43980</v>
@@ -3003,7 +3061,7 @@
         <v>Sim</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N37" s="4">
         <v>44102</v>
@@ -3014,13 +3072,13 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>115</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="D38" s="4">
         <v>44057</v>
@@ -3062,13 +3120,13 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>117</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="D39" s="4">
         <v>44032</v>
@@ -3110,10 +3168,10 @@
     </row>
     <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D40" s="4">
         <v>44042</v>
@@ -3143,13 +3201,13 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>120</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="C41" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="D41" s="4">
         <v>44026</v>
@@ -3182,7 +3240,7 @@
         <v>Sim</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N41" s="6">
         <v>44027</v>
@@ -3193,10 +3251,10 @@
     </row>
     <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D42" s="4">
         <v>44042</v>
@@ -3226,13 +3284,13 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>124</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>126</v>
       </c>
       <c r="D43" s="4">
         <v>44026</v>
@@ -3274,10 +3332,10 @@
     </row>
     <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D44" s="4">
         <v>44042</v>
@@ -3307,10 +3365,10 @@
     </row>
     <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D45" s="4">
         <v>44042</v>
@@ -3340,13 +3398,13 @@
     </row>
     <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>127</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="D46" s="4">
         <v>44001</v>
@@ -3379,7 +3437,7 @@
         <v>Sim</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N46" s="4">
         <v>44102</v>
@@ -3390,13 +3448,13 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>129</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="D47" s="4">
         <v>44028</v>
@@ -3429,7 +3487,7 @@
         <v>Sim</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N47" s="4">
         <v>44035</v>
@@ -3440,13 +3498,13 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>132</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>134</v>
       </c>
       <c r="D48" s="4">
         <v>44026</v>
@@ -3479,7 +3537,7 @@
         <v>Sim</v>
       </c>
       <c r="M48" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N48" s="4">
         <v>44033</v>
@@ -3490,13 +3548,13 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>135</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="C49" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>138</v>
       </c>
       <c r="D49" s="4">
         <v>44056</v>
@@ -3538,13 +3596,13 @@
     </row>
     <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>140</v>
       </c>
       <c r="D50" s="8">
         <v>44007</v>
@@ -3577,7 +3635,7 @@
         <v>Sim</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N50" s="4">
         <v>44102</v>
@@ -3588,13 +3646,13 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>140</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>142</v>
       </c>
       <c r="D51" s="4">
         <v>44056</v>
@@ -3636,10 +3694,10 @@
     </row>
     <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D52" s="4">
         <v>44042</v>
@@ -3669,13 +3727,13 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53" s="9" t="s">
         <v>144</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>145</v>
       </c>
       <c r="D53" s="8">
         <v>44028</v>
@@ -3717,13 +3775,13 @@
     </row>
     <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="D54" s="4">
         <v>44041</v>
@@ -3760,10 +3818,10 @@
     </row>
     <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D55" s="4">
         <v>44042</v>
@@ -3793,10 +3851,10 @@
     </row>
     <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D56" s="4">
         <v>44042</v>
@@ -3826,10 +3884,10 @@
     </row>
     <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D57" s="4">
         <v>44042</v>
@@ -3859,13 +3917,13 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>147</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="C58" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="D58" s="4">
         <v>44028</v>
@@ -3907,10 +3965,10 @@
     </row>
     <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D59" s="4">
         <v>44042</v>
@@ -3940,13 +3998,13 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>150</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="D60" s="22">
         <v>44148</v>
@@ -3986,13 +4044,13 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>152</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>154</v>
       </c>
       <c r="D61" s="4">
         <v>44056</v>
@@ -4034,13 +4092,13 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>154</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="D62" s="4">
         <v>44022</v>
@@ -4073,7 +4131,7 @@
         <v>Sim</v>
       </c>
       <c r="M62" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N62" s="4">
         <v>44029</v>
@@ -4084,10 +4142,10 @@
     </row>
     <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D63" s="4">
         <v>44042</v>
@@ -4117,10 +4175,10 @@
     </row>
     <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D64" s="4">
         <v>44042</v>
@@ -4150,10 +4208,10 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D65" s="4">
         <v>44033</v>
@@ -4186,10 +4244,10 @@
     </row>
     <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D66" s="4">
         <v>44042</v>
@@ -4219,10 +4277,10 @@
     </row>
     <row r="67" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D67" s="4">
         <v>44042</v>
@@ -4252,10 +4310,10 @@
     </row>
     <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D68" s="4">
         <v>44042</v>
@@ -4285,13 +4343,13 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>160</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>162</v>
       </c>
       <c r="D69" s="4">
         <v>44027</v>
@@ -4333,13 +4391,13 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>162</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>164</v>
       </c>
       <c r="D70" s="4">
         <v>44070</v>
@@ -4381,13 +4439,13 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>165</v>
+        <v>222</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D71" s="4">
         <v>44028</v>
@@ -4426,13 +4484,13 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D72" s="4">
         <v>44032</v>
@@ -4471,13 +4529,13 @@
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D73" s="4">
         <v>44096</v>
@@ -4510,7 +4568,7 @@
         <v>Sim</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="N73" s="4">
         <v>44099</v>
@@ -4521,13 +4579,13 @@
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D74" s="4">
         <v>44041</v>
@@ -4569,13 +4627,13 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D75" s="4">
         <v>44057</v>
@@ -4617,13 +4675,13 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D76" s="4">
         <v>44048</v>
@@ -4663,13 +4721,13 @@
     </row>
     <row r="77" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D77" s="4">
         <v>44046</v>
@@ -4702,7 +4760,7 @@
         <v>Sim</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N77" s="4">
         <v>44102</v>
@@ -4713,10 +4771,10 @@
     </row>
     <row r="78" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D78" s="4">
         <v>44042</v>
@@ -4746,10 +4804,10 @@
     </row>
     <row r="79" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D79" s="4">
         <v>44042</v>
@@ -4779,13 +4837,13 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D80" s="4">
         <v>44062</v>
@@ -4827,13 +4885,13 @@
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D81" s="4">
         <v>44025</v>
@@ -4862,7 +4920,7 @@
         <v>Sim</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N81" s="4">
         <v>44028</v>
@@ -4873,10 +4931,10 @@
     </row>
     <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D82" s="4">
         <v>44042</v>
@@ -4906,13 +4964,13 @@
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D83" s="4">
         <v>44049</v>
@@ -4951,13 +5009,13 @@
     </row>
     <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D84" s="4">
         <v>44050</v>
@@ -4990,7 +5048,7 @@
         <v>Sim</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N84" s="4">
         <v>44102</v>
@@ -5001,10 +5059,10 @@
     </row>
     <row r="85" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D85" s="4">
         <v>44042</v>
@@ -5034,13 +5092,13 @@
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D86" s="4">
         <v>44050</v>
@@ -5082,13 +5140,13 @@
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D87" s="4">
         <v>44068</v>
@@ -5130,13 +5188,13 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D88" s="4">
         <v>44064</v>
@@ -5176,13 +5234,13 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D89" s="4">
         <v>44092</v>
@@ -5224,13 +5282,13 @@
     </row>
     <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D90" s="4">
         <v>44068</v>
@@ -5270,13 +5328,13 @@
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D91" s="4">
         <v>44092</v>
@@ -5309,7 +5367,7 @@
         <v>Sim</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="N91" s="4">
         <v>44092</v>
@@ -5320,13 +5378,13 @@
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D92" s="4">
         <v>44084</v>
@@ -5359,7 +5417,7 @@
         <v>Sim</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="N92" s="4">
         <v>44085</v>
@@ -5370,13 +5428,13 @@
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D93" s="4">
         <v>44089</v>
@@ -5416,13 +5474,13 @@
     </row>
     <row r="94" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D94" s="4">
         <v>44146</v>
@@ -5456,10 +5514,10 @@
     </row>
     <row r="95" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D95" s="4">
         <v>44147</v>
@@ -5540,6 +5598,377 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C805C4C5-2977-4CC2-BBBF-3D2F00B079B3}">
+  <dimension ref="A1:B44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D6:D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="B37" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="B38" s="27" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="B39" s="28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="B40" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="B41" s="28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="B42" s="27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="B43" s="28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="B44" s="27" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001CCBB5-6EFF-4874-972E-609DCF371BC4}">
   <dimension ref="A1:F52"/>
   <sheetViews>
@@ -5875,7 +6304,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D771FD2D-403A-4779-AFE0-8645416947B8}">
   <sheetPr codeName="Planilha3"/>
   <dimension ref="A1:D6"/>
@@ -5893,16 +6322,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1" t="s">
         <v>209</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>210</v>
-      </c>
-      <c r="C1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D1" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5910,13 +6339,13 @@
         <v>44029</v>
       </c>
       <c r="B2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D2" t="s">
         <v>213</v>
-      </c>
-      <c r="C2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D2" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -5924,13 +6353,13 @@
         <v>44029</v>
       </c>
       <c r="B3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -5938,13 +6367,13 @@
         <v>44029</v>
       </c>
       <c r="B4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -5952,13 +6381,13 @@
         <v>44029</v>
       </c>
       <c r="B5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -5966,10 +6395,10 @@
         <v>44103</v>
       </c>
       <c r="B6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -5978,21 +6407,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101007CAF85F579D9C94D829ACD7F874C94AF" ma:contentTypeVersion="11" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="5004fc92ea28494eb923392ea403d238">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0f370953-9f60-49f5-9e00-e1a3f0ed2ba0" xmlns:ns3="a77d5170-f388-44e7-ac79-04d186fae979" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e9966bff9ebeba1bfee79054c0c62bac" ns2:_="" ns3:_="">
     <xsd:import namespace="0f370953-9f60-49f5-9e00-e1a3f0ed2ba0"/>
@@ -6203,32 +6617,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7B7275C-3146-4958-B4AF-D20D560C09C9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="a77d5170-f388-44e7-ac79-04d186fae979"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="0f370953-9f60-49f5-9e00-e1a3f0ed2ba0"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{239B665C-BE14-4FB6-BE28-C3BB1EBD3416}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6254BE9F-B037-4541-B9F5-ACD06E5D92EB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6245,4 +6649,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{239B665C-BE14-4FB6-BE28-C3BB1EBD3416}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7B7275C-3146-4958-B4AF-D20D560C09C9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="a77d5170-f388-44e7-ac79-04d186fae979"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="0f370953-9f60-49f5-9e00-e1a3f0ed2ba0"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>